--- a/results.xlsx
+++ b/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
